--- a/model/compared_results/wine_quality_result/wine_quality_results.xlsx
+++ b/model/compared_results/wine_quality_result/wine_quality_results.xlsx
@@ -526,31 +526,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9275</v>
+        <v>0.9273</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5407999999999999</v>
+        <v>0.5577</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9425</v>
+        <v>0.9417</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6607</v>
+        <v>0.6634</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7122000000000001</v>
+        <v>0.7227</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8427</v>
+        <v>0.8300999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3616</v>
+        <v>0.3306</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6261</v>
+        <v>0.6278</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7417</v>
+        <v>0.7497</v>
       </c>
     </row>
     <row r="4">

--- a/model/compared_results/wine_quality_result/wine_quality_results.xlsx
+++ b/model/compared_results/wine_quality_result/wine_quality_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,31 +492,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9114</v>
+        <v>0.914</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5899</v>
+        <v>0.5955</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9239000000000001</v>
+        <v>0.9264</v>
       </c>
       <c r="E2" t="n">
-        <v>0.642</v>
+        <v>0.6477000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7365</v>
+        <v>0.741</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8726</v>
+        <v>0.8671</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3932</v>
+        <v>0.3653</v>
       </c>
       <c r="I2" t="n">
-        <v>0.607</v>
+        <v>0.6117</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7569</v>
+        <v>0.761</v>
       </c>
     </row>
     <row r="3">
@@ -526,31 +526,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9273</v>
+        <v>0.9232</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5577</v>
+        <v>0.5407</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9417</v>
+        <v>0.9381</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6634</v>
+        <v>0.6519</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7227</v>
+        <v>0.7097</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8300999999999999</v>
+        <v>0.8363</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3306</v>
+        <v>0.3598</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6278</v>
+        <v>0.6176</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7497</v>
+        <v>0.7393999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -560,31 +560,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8665</v>
+        <v>0.8622</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7048</v>
+        <v>0.6995</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8727</v>
+        <v>0.8685</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6048</v>
+        <v>0.5998</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7836</v>
+        <v>0.7792</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8617</v>
+        <v>0.8628</v>
       </c>
       <c r="H4" t="n">
-        <v>0.279</v>
+        <v>0.2904</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5823</v>
+        <v>0.5794</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7887999999999999</v>
+        <v>0.784</v>
       </c>
     </row>
     <row r="5">
@@ -594,31 +594,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8369</v>
+        <v>0.8405</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7155</v>
+        <v>0.7153</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8416</v>
+        <v>0.8454</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5788</v>
+        <v>0.5814</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7756999999999999</v>
+        <v>0.7768</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8483000000000001</v>
+        <v>0.8443000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2957</v>
+        <v>0.2875</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5691000000000001</v>
+        <v>0.5703</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7785</v>
+        <v>0.7804</v>
       </c>
     </row>
     <row r="6">
@@ -628,31 +628,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7282999999999999</v>
+        <v>0.7079</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4032</v>
+        <v>0.5401</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7408</v>
+        <v>0.7143</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4627</v>
+        <v>0.4733</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4973</v>
+        <v>0.6161</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6437</v>
+        <v>0.6932</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1019</v>
+        <v>0.09710000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5145999999999999</v>
+        <v>0.5229</v>
       </c>
       <c r="J6" t="n">
-        <v>0.572</v>
+        <v>0.6272</v>
       </c>
     </row>
     <row r="7">
@@ -662,31 +662,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8128</v>
+        <v>0.8052</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7919</v>
+        <v>0.7865</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8136</v>
+        <v>0.8058999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5673</v>
+        <v>0.5607</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8022</v>
+        <v>0.7959000000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>0.865</v>
+        <v>0.8645</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2843</v>
+        <v>0.3037</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5664</v>
+        <v>0.5633</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8027</v>
+        <v>0.7962</v>
       </c>
     </row>
     <row r="8">
@@ -789,6 +789,176 @@
       </c>
       <c r="J10" t="n">
         <v>0.674</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CatBoostClassifier</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9635</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1039</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9968</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5776</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.3168</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.8581</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.7621</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.5504</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SMOTEBoostClassifier</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.8471</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.623</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8558</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5744</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.7298</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.8054</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.2483</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.5637</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.7393999999999999</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>OverBaggingClassifier</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.9663</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.1634</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6227</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.399</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.854</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.3826</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.8522999999999999</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.5804</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>OverBoostClassifier</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.8648</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.6278</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.874</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.5921</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.7399</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.8120000000000001</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.2789</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.5733</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.7509</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SMOTEBaggingClassifier</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9657</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2077</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9951</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.6469</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.4535</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.8835</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.3772</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.8078</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.6014</v>
       </c>
     </row>
   </sheetData>
